--- a/exmple/accounts.xlsx
+++ b/exmple/accounts.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="permissions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="roles" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="translations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="navigation bars" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="buckets" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="permissions" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="roles" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="translations" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="navigation bars" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="buckets" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'navigation bars'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'navigation bars'!$A$1:$G$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'navigation bars'!$A$1:$G$12</definedName>
   </definedNames>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="241">
   <si>
     <t xml:space="preserve">permission name</t>
   </si>
@@ -42,10 +44,10 @@
     <t xml:space="preserve">roles list</t>
   </si>
   <si>
-    <t>RolesList</t>
-  </si>
-  <si>
-    <t>roles</t>
+    <t xml:space="preserve">RolesList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to view the list of roles</t>
@@ -54,7 +56,7 @@
     <t xml:space="preserve">role create</t>
   </si>
   <si>
-    <t>RoleCreate</t>
+    <t xml:space="preserve">RoleCreate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to create a new role</t>
@@ -63,7 +65,7 @@
     <t xml:space="preserve">role update</t>
   </si>
   <si>
-    <t>RoleUpdate</t>
+    <t xml:space="preserve">RoleUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to update an existing role</t>
@@ -72,7 +74,7 @@
     <t xml:space="preserve">role delete</t>
   </si>
   <si>
-    <t>RoleDelete</t>
+    <t xml:space="preserve">RoleDelete</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to delete a role</t>
@@ -81,7 +83,7 @@
     <t xml:space="preserve">role restore</t>
   </si>
   <si>
-    <t>RoleRestore</t>
+    <t xml:space="preserve">RoleRestore</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to restore a deleted role</t>
@@ -90,10 +92,10 @@
     <t xml:space="preserve">users list</t>
   </si>
   <si>
-    <t>UsersList</t>
-  </si>
-  <si>
-    <t>users</t>
+    <t xml:space="preserve">UsersList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to view the list of users</t>
@@ -102,7 +104,7 @@
     <t xml:space="preserve">user create</t>
   </si>
   <si>
-    <t>UserCreate</t>
+    <t xml:space="preserve">UserCreate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to create a new user</t>
@@ -111,7 +113,7 @@
     <t xml:space="preserve">user update</t>
   </si>
   <si>
-    <t>UserUpdate</t>
+    <t xml:space="preserve">UserUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to update an existing user</t>
@@ -120,7 +122,7 @@
     <t xml:space="preserve">user delete</t>
   </si>
   <si>
-    <t>UserDelete</t>
+    <t xml:space="preserve">UserDelete</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to delete a user</t>
@@ -129,7 +131,7 @@
     <t xml:space="preserve">user restore</t>
   </si>
   <si>
-    <t>UserRestore</t>
+    <t xml:space="preserve">UserRestore</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to restore a deleted user</t>
@@ -138,10 +140,10 @@
     <t xml:space="preserve">navigation list</t>
   </si>
   <si>
-    <t>NavigationList</t>
-  </si>
-  <si>
-    <t>navigation</t>
+    <t xml:space="preserve">NavigationList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to view the list of navigation items</t>
@@ -150,7 +152,7 @@
     <t xml:space="preserve">navigation create</t>
   </si>
   <si>
-    <t>NavigationCreate</t>
+    <t xml:space="preserve">NavigationCreate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to create a new navigation item</t>
@@ -159,7 +161,7 @@
     <t xml:space="preserve">navigation update</t>
   </si>
   <si>
-    <t>NavigationUpdate</t>
+    <t xml:space="preserve">NavigationUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to update an existing navigation item</t>
@@ -168,7 +170,7 @@
     <t xml:space="preserve">navigation delete</t>
   </si>
   <si>
-    <t>NavigationDelete</t>
+    <t xml:space="preserve">NavigationDelete</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to delete a navigation item</t>
@@ -177,7 +179,7 @@
     <t xml:space="preserve">navigation restore</t>
   </si>
   <si>
-    <t>NavigationRestore</t>
+    <t xml:space="preserve">NavigationRestore</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to restore a deleted navigation item</t>
@@ -186,10 +188,10 @@
     <t xml:space="preserve">icons list</t>
   </si>
   <si>
-    <t>IconsList</t>
-  </si>
-  <si>
-    <t>icons</t>
+    <t xml:space="preserve">IconsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icons</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to view the list of icons</t>
@@ -198,7 +200,7 @@
     <t xml:space="preserve">icon create</t>
   </si>
   <si>
-    <t>IconCreate</t>
+    <t xml:space="preserve">IconCreate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to create a new icon</t>
@@ -207,7 +209,7 @@
     <t xml:space="preserve">icon update</t>
   </si>
   <si>
-    <t>IconUpdate</t>
+    <t xml:space="preserve">IconUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to update an existing icon</t>
@@ -216,7 +218,7 @@
     <t xml:space="preserve">icon delete</t>
   </si>
   <si>
-    <t>IconDelete</t>
+    <t xml:space="preserve">IconDelete</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to delete an icon</t>
@@ -225,7 +227,7 @@
     <t xml:space="preserve">icon restore</t>
   </si>
   <si>
-    <t>IconRestore</t>
+    <t xml:space="preserve">IconRestore</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to restore a deleted icon</t>
@@ -234,10 +236,10 @@
     <t xml:space="preserve">translations list</t>
   </si>
   <si>
-    <t>TranslationsList</t>
-  </si>
-  <si>
-    <t>translations</t>
+    <t xml:space="preserve">TranslationsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translations</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to view the list of translations</t>
@@ -246,7 +248,7 @@
     <t xml:space="preserve">translation create</t>
   </si>
   <si>
-    <t>TranslationCreate</t>
+    <t xml:space="preserve">TranslationCreate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to create a new translation</t>
@@ -255,7 +257,7 @@
     <t xml:space="preserve">translation update</t>
   </si>
   <si>
-    <t>TranslationUpdate</t>
+    <t xml:space="preserve">TranslationUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to update an existing translation</t>
@@ -264,7 +266,7 @@
     <t xml:space="preserve">translation delete</t>
   </si>
   <si>
-    <t>TranslationDelete</t>
+    <t xml:space="preserve">TranslationDelete</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to delete a translation</t>
@@ -273,19 +275,19 @@
     <t xml:space="preserve">translation restore</t>
   </si>
   <si>
-    <t>TranslationRestore</t>
+    <t xml:space="preserve">TranslationRestore</t>
   </si>
   <si>
     <t xml:space="preserve">Permission to restore a deleted translation</t>
   </si>
   <si>
-    <t>role_name</t>
-  </si>
-  <si>
-    <t>role_group</t>
-  </si>
-  <si>
-    <t>permission_id***accounts_schema.role_permissions***accounts_schema.permissions***permission_functions***role_name</t>
+    <t xml:space="preserve">role_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role_group#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission_id***accounts_schema.role_permissions***accounts_schema.permissions***permission_functions***role_name</t>
   </si>
   <si>
     <t xml:space="preserve">super admin</t>
@@ -294,7 +296,7 @@
     <t xml:space="preserve">super admin role</t>
   </si>
   <si>
-    <t>*</t>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">super admin2</t>
@@ -303,7 +305,7 @@
     <t xml:space="preserve">super admin role2</t>
   </si>
   <si>
-    <t>admin</t>
+    <t xml:space="preserve">admin</t>
   </si>
   <si>
     <t xml:space="preserve">super admin3</t>
@@ -312,10 +314,10 @@
     <t xml:space="preserve">super admin role3</t>
   </si>
   <si>
-    <t>list|update</t>
-  </si>
-  <si>
-    <t>translation_key</t>
+    <t xml:space="preserve">list|update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation_key</t>
   </si>
   <si>
     <t xml:space="preserve">english value</t>
@@ -324,7 +326,7 @@
     <t xml:space="preserve">arabic value</t>
   </si>
   <si>
-    <t>roles.list</t>
+    <t xml:space="preserve">roles.list</t>
   </si>
   <si>
     <t xml:space="preserve">List Roles</t>
@@ -333,7 +335,7 @@
     <t xml:space="preserve">شوف الأدوار</t>
   </si>
   <si>
-    <t>role.create</t>
+    <t xml:space="preserve">role.create</t>
   </si>
   <si>
     <t xml:space="preserve">Create Role</t>
@@ -342,7 +344,7 @@
     <t xml:space="preserve">اعمل دور</t>
   </si>
   <si>
-    <t>role.update</t>
+    <t xml:space="preserve">role.update</t>
   </si>
   <si>
     <t xml:space="preserve">Update Role</t>
@@ -351,7 +353,7 @@
     <t xml:space="preserve">عدل الدور</t>
   </si>
   <si>
-    <t>role.delete</t>
+    <t xml:space="preserve">role.delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Role</t>
@@ -360,7 +362,7 @@
     <t xml:space="preserve">احذف الدور</t>
   </si>
   <si>
-    <t>role.restore</t>
+    <t xml:space="preserve">role.restore</t>
   </si>
   <si>
     <t xml:space="preserve">Restore Role</t>
@@ -369,7 +371,7 @@
     <t xml:space="preserve">رجع الدور</t>
   </si>
   <si>
-    <t>users.list</t>
+    <t xml:space="preserve">users.list</t>
   </si>
   <si>
     <t xml:space="preserve">List Users</t>
@@ -378,7 +380,7 @@
     <t xml:space="preserve">شوف المستخدمين</t>
   </si>
   <si>
-    <t>user.create</t>
+    <t xml:space="preserve">user.create</t>
   </si>
   <si>
     <t xml:space="preserve">Create User</t>
@@ -387,7 +389,7 @@
     <t xml:space="preserve">اعمل مستخدم</t>
   </si>
   <si>
-    <t>user.update</t>
+    <t xml:space="preserve">user.update</t>
   </si>
   <si>
     <t xml:space="preserve">Update User</t>
@@ -396,7 +398,7 @@
     <t xml:space="preserve">عدل المستخدم</t>
   </si>
   <si>
-    <t>user.delete</t>
+    <t xml:space="preserve">user.delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete User</t>
@@ -405,7 +407,7 @@
     <t xml:space="preserve">احذف المستخدم</t>
   </si>
   <si>
-    <t>user.restore</t>
+    <t xml:space="preserve">user.restore</t>
   </si>
   <si>
     <t xml:space="preserve">Restore User</t>
@@ -414,7 +416,7 @@
     <t xml:space="preserve">رجع المستخدم</t>
   </si>
   <si>
-    <t>navigation.list</t>
+    <t xml:space="preserve">navigation.list</t>
   </si>
   <si>
     <t xml:space="preserve">List Navigation Items</t>
@@ -423,7 +425,7 @@
     <t xml:space="preserve">شوف عناصر التنقل</t>
   </si>
   <si>
-    <t>navigation.create</t>
+    <t xml:space="preserve">navigation.create</t>
   </si>
   <si>
     <t xml:space="preserve">Create Navigation Item</t>
@@ -432,7 +434,7 @@
     <t xml:space="preserve">اعمل عنصر تنقل</t>
   </si>
   <si>
-    <t>navigation.update</t>
+    <t xml:space="preserve">navigation.update</t>
   </si>
   <si>
     <t xml:space="preserve">Update Navigation Item</t>
@@ -441,7 +443,7 @@
     <t xml:space="preserve">عدل عنصر التنقل</t>
   </si>
   <si>
-    <t>navigation.delete</t>
+    <t xml:space="preserve">navigation.delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Navigation Item</t>
@@ -450,7 +452,7 @@
     <t xml:space="preserve">احذف عنصر التنقل</t>
   </si>
   <si>
-    <t>navigation.restore</t>
+    <t xml:space="preserve">navigation.restore</t>
   </si>
   <si>
     <t xml:space="preserve">Restore Navigation Item</t>
@@ -459,7 +461,7 @@
     <t xml:space="preserve">رجع عنصر التنقل</t>
   </si>
   <si>
-    <t>icons.list</t>
+    <t xml:space="preserve">icons.list</t>
   </si>
   <si>
     <t xml:space="preserve">List Icons</t>
@@ -468,7 +470,7 @@
     <t xml:space="preserve">شوف الأيقونات</t>
   </si>
   <si>
-    <t>icon.create</t>
+    <t xml:space="preserve">icon.create</t>
   </si>
   <si>
     <t xml:space="preserve">Create Icon</t>
@@ -477,7 +479,7 @@
     <t xml:space="preserve">اعمل أيقونة</t>
   </si>
   <si>
-    <t>icon.update</t>
+    <t xml:space="preserve">icon.update</t>
   </si>
   <si>
     <t xml:space="preserve">Update Icon</t>
@@ -486,7 +488,7 @@
     <t xml:space="preserve">عدل الأيقونة</t>
   </si>
   <si>
-    <t>icon.delete</t>
+    <t xml:space="preserve">icon.delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Icon</t>
@@ -495,7 +497,7 @@
     <t xml:space="preserve">احذف الأيقونة</t>
   </si>
   <si>
-    <t>icon.restore</t>
+    <t xml:space="preserve">icon.restore</t>
   </si>
   <si>
     <t xml:space="preserve">Restore Icon</t>
@@ -504,7 +506,7 @@
     <t xml:space="preserve">رجع الأيقونة</t>
   </si>
   <si>
-    <t>translations.list</t>
+    <t xml:space="preserve">translations.list</t>
   </si>
   <si>
     <t xml:space="preserve">List Translations</t>
@@ -513,7 +515,7 @@
     <t xml:space="preserve">شوف الترجمات</t>
   </si>
   <si>
-    <t>translation.create</t>
+    <t xml:space="preserve">translation.create</t>
   </si>
   <si>
     <t xml:space="preserve">Create Translation</t>
@@ -522,7 +524,7 @@
     <t xml:space="preserve">اعمل ترجمة</t>
   </si>
   <si>
-    <t>translation.update</t>
+    <t xml:space="preserve">translation.update</t>
   </si>
   <si>
     <t xml:space="preserve">Update Translation</t>
@@ -531,7 +533,7 @@
     <t xml:space="preserve">عدل الترجمة</t>
   </si>
   <si>
-    <t>translation.delete</t>
+    <t xml:space="preserve">translation.delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Translation</t>
@@ -540,7 +542,7 @@
     <t xml:space="preserve">احذف الترجمة</t>
   </si>
   <si>
-    <t>translation.restore</t>
+    <t xml:space="preserve">translation.restore</t>
   </si>
   <si>
     <t xml:space="preserve">Restore Translation</t>
@@ -552,16 +554,16 @@
     <t xml:space="preserve">Menu Key</t>
   </si>
   <si>
-    <t>Label</t>
+    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Label (Arabic)</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Route</t>
+    <t xml:space="preserve">Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route</t>
   </si>
   <si>
     <t xml:space="preserve">Parent ID</t>
@@ -570,175 +572,175 @@
     <t xml:space="preserve">Permission Function</t>
   </si>
   <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">لوحة التحكم</t>
   </si>
   <si>
-    <t>dashboard_icon</t>
-  </si>
-  <si>
-    <t>/dashboard</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>DashboardView</t>
-  </si>
-  <si>
-    <t>accounts</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>الحسابات</t>
-  </si>
-  <si>
-    <t>accounts_icon</t>
-  </si>
-  <si>
-    <t>/accounts</t>
-  </si>
-  <si>
-    <t>AccountsView</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>الأدوار</t>
-  </si>
-  <si>
-    <t>roles_icon</t>
-  </si>
-  <si>
-    <t>/accounts/roles</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>المستخدمين</t>
-  </si>
-  <si>
-    <t>users_icon</t>
-  </si>
-  <si>
-    <t>/accounts/users</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>التنقل</t>
-  </si>
-  <si>
-    <t>navigation_icon</t>
-  </si>
-  <si>
-    <t>/accounts/navigation</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>النظام</t>
-  </si>
-  <si>
-    <t>system_icon</t>
-  </si>
-  <si>
-    <t>/system</t>
-  </si>
-  <si>
-    <t>SystemView</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>الإعدادات</t>
-  </si>
-  <si>
-    <t>settings_icon</t>
-  </si>
-  <si>
-    <t>/system/settings</t>
-  </si>
-  <si>
-    <t>SettingsView</t>
-  </si>
-  <si>
-    <t>Translations</t>
-  </si>
-  <si>
-    <t>الترجمات</t>
-  </si>
-  <si>
-    <t>translations_icon</t>
-  </si>
-  <si>
-    <t>/system/translations</t>
-  </si>
-  <si>
-    <t>Icons</t>
-  </si>
-  <si>
-    <t>الأيقونات</t>
-  </si>
-  <si>
-    <t>icons_icon</t>
-  </si>
-  <si>
-    <t>/system/icons</t>
-  </si>
-  <si>
-    <t>buckets</t>
-  </si>
-  <si>
-    <t>Buckets</t>
-  </si>
-  <si>
-    <t>الدلاء</t>
-  </si>
-  <si>
-    <t>buckets_icon</t>
-  </si>
-  <si>
-    <t>/system/buckets</t>
-  </si>
-  <si>
-    <t>BucketsList</t>
-  </si>
-  <si>
-    <t>objects</t>
-  </si>
-  <si>
-    <t>Objects</t>
-  </si>
-  <si>
-    <t>الكائنات</t>
-  </si>
-  <si>
-    <t>objects_icon</t>
-  </si>
-  <si>
-    <t>/system/objects</t>
-  </si>
-  <si>
-    <t>ObjectsList</t>
+    <t xml:space="preserve">dashboard_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashboardView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحسابات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountsView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأدوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النظام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SystemView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإعدادات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SettingsView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الترجمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translations_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأيقونات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icons_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدلاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buckets_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BucketsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكائنات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objects_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectsList</t>
   </si>
   <si>
     <t xml:space="preserve">bucket name</t>
@@ -747,34 +749,52 @@
     <t xml:space="preserve">is public</t>
   </si>
   <si>
-    <t>images</t>
+    <t xml:space="preserve">images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="12.000000"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="CommitMono Nerd Font"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -786,74 +806,117 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table2" ref="A1:D28" headerRowCount="1" totalsRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:D28" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="permission name"/>
@@ -865,18 +928,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Table3" ref="A1:C4" headerRowCount="1" totalsRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:C4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="role_name"/>
-    <tableColumn id="2" name="role_group"/>
+    <tableColumn id="2" name="role_group#"/>
     <tableColumn id="3" name="permission_id***accounts_schema.role_permissions***accounts_schema.permissions***permission_functions***role_name"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Table5" ref="A1:C33" headerRowCount="1" totalsRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table5" displayName="Table5" ref="A1:C33" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:C33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="translation_key"/>
@@ -886,343 +949,60 @@
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1249,6 +1029,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1272,6 +1053,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1290,31 +1072,13 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1349,841 +1113,850 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="18.199999999999999"/>
-    <col customWidth="1" min="2" max="2" style="0" width="20.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="18.539999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="42.009999999999998"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.01"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.199999999999999" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.800000000000001" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="15">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="15">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="15">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="15">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="15">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="15">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="15">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="15">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="29.949999999999999">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" ht="15">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="15.699999999999999">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" ht="15">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" ht="15">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" ht="15">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="15">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" ht="15">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" ht="15">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="15">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="15">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" ht="15">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="15">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.70069444444444484" right="0.70069444444444484" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="18.199999999999999"/>
-    <col customWidth="1" min="2" max="2" style="0" width="20.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="18.539999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="42.009999999999998"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.01"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" ht="16.199999999999999" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="16.800000000000001" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" ht="15">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" ht="15"/>
-    <row r="6" ht="15"/>
-    <row r="7" ht="15"/>
-    <row r="8" ht="15"/>
-    <row r="9" ht="15"/>
-    <row r="10" ht="15"/>
-    <row r="11" ht="15"/>
-    <row r="12" ht="15"/>
-    <row r="13" ht="15"/>
-    <row r="14" ht="30"/>
-    <row r="15" ht="15"/>
-    <row r="16" ht="30"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
-    <row r="24" ht="15"/>
-    <row r="25" ht="15"/>
-    <row r="26" ht="15"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.70069444444444484" right="0.70069444444444484" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="18.199999999999999"/>
-    <col customWidth="1" min="2" max="2" style="0" width="20.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="18.539999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="42.009999999999998"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.01"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" ht="15">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" ht="15">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" ht="15">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" ht="15">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" ht="15">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="15">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" ht="15">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" ht="15">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" ht="15.699999999999999">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" ht="29.949999999999999">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" ht="29.949999999999999">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" ht="29.949999999999999">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" ht="29.949999999999999">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" ht="15">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" ht="15">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" ht="15">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" ht="15">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" ht="15">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" ht="15">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" ht="15">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" ht="15">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" ht="15">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" ht="15">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.70069444444444484" right="0.70069444444444484" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.800000000000001"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" style="0" width="12.140000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="15.99"/>
-    <col customWidth="1" min="5" max="5" style="0" width="19.420000000000002"/>
-    <col customWidth="1" min="6" max="6" style="0" width="11.43"/>
-    <col customWidth="1" min="7" max="7" style="0" width="20.530000000000001"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.53"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.800000000000001">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>174</v>
       </c>
@@ -2206,14 +1979,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" ht="13.800000000000001">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2229,14 +2002,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" ht="13.800000000000001">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2252,14 +2025,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" ht="13.800000000000001">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2268,21 +2041,21 @@
       <c r="E4" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="13.800000000000001">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2291,21 +2064,21 @@
       <c r="E5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="13.800000000000001">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2314,21 +2087,21 @@
       <c r="E6" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="13.800000000000001">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2344,14 +2117,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" ht="13.800000000000001">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2360,21 +2133,21 @@
       <c r="E8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" ht="13.800000000000001">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2383,21 +2156,21 @@
       <c r="E9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" ht="13.800000000000001">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2406,21 +2179,21 @@
       <c r="E10" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="13.800000000000001">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2429,21 +2202,21 @@
       <c r="E11" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" ht="13.800000000000001">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2452,7 +2225,7 @@
       <c r="E12" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2461,60 +2234,62 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G12"/>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" ht="13.800000000000001">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" ht="13.800000000000001">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="6" t="b">
+      <c r="B2" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.800000000000001"/>
-    <row r="4" ht="13.800000000000001"/>
-    <row r="5" ht="13.800000000000001"/>
-    <row r="6" ht="13.800000000000001"/>
-    <row r="7" ht="13.800000000000001"/>
-    <row r="8" ht="13.800000000000001"/>
-    <row r="9" ht="13.800000000000001"/>
-    <row r="10" ht="13.800000000000001"/>
-    <row r="11" ht="13.800000000000001"/>
-    <row r="12" ht="13.800000000000001"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/exmple/accounts.xlsx
+++ b/exmple/accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,7 @@
     <sheet name="translations" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="navigation bars" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="buckets" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="users" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'navigation bars'!$A$1:$G$12</definedName>
@@ -27,18 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="241">
-  <si>
-    <t xml:space="preserve">permission name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permission function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permission group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permission description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
+  <si>
+    <t xml:space="preserve">permission_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission_description</t>
   </si>
   <si>
     <t xml:space="preserve">roles list</t>
@@ -284,7 +285,7 @@
     <t xml:space="preserve">role_name</t>
   </si>
   <si>
-    <t xml:space="preserve">role_group#</t>
+    <t xml:space="preserve">role_group</t>
   </si>
   <si>
     <t xml:space="preserve">permission_id***accounts_schema.role_permissions***accounts_schema.permissions***permission_functions***role_name</t>
@@ -299,457 +300,499 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">super admin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super admin role2</t>
+    <t xml:space="preserve">modirtator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderator role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NavigationList|NavigationCreate|NavigationUpdate|NavigationDelete|NavigationRestore|IconsList|IconCreateIconUpdate|IconDelete|IconRestore|TranslationsList|TranslationCreate|TranslationUpdate|TranslationDelete|TranslationRestore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arabic value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles.list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوف الأدوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعمل دور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدل الدور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف الدور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجع الدور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users.list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوف المستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعمل مستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدل المستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف المستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user.restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجع المستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation.list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Navigation Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوف عناصر التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Navigation Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعمل عنصر تنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Navigation Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدل عنصر التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Navigation Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف عنصر التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation.restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Navigation Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجع عنصر التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icons.list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوف الأيقونات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعمل أيقونة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدل الأيقونة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف الأيقونة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon.restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجع الأيقونة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translations.list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوف الترجمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعمل ترجمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدل الترجمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف الترجمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation.restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجع الترجمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permission_id**accounts_schema.permissions**permission_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوحة التحكم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashboardView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحسابات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountsView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأدوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التنقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/accounts/navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النظام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SystemView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإعدادات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SettingsView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الترجمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translations_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأيقونات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icons_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدلاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buckets_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BucketsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكائنات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objects_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucket name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_security_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_type_id**accounts_schema.user_types**user_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_password#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role_id***accounts_schema.user_roles***accounts_schema.roles***role_name***user_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">super admin3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super admin role3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list|update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">english value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arabic value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roles.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوف الأدوار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعمل دور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدل الدور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف الدور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role.restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رجع الدور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">users.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوف المستخدمين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعمل مستخدم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدل المستخدم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف المستخدم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رجع المستخدم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Navigation Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوف عناصر التنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Navigation Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعمل عنصر تنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Navigation Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدل عنصر التنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Navigation Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف عنصر التنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation.restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Navigation Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رجع عنصر التنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icons.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوف الأيقونات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعمل أيقونة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدل الأيقونة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف الأيقونة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon.restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رجع الأيقونة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translations.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوف الترجمات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation.create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعمل ترجمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation.update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدل الترجمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation.delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف الترجمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation.restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رجع الترجمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label (Arabic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لوحة التحكم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashboard_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DashboardView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحسابات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accounts_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountsView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأدوار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roles_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/accounts/roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المستخدمين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">users_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/accounts/users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التنقل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigation_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/accounts/navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النظام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإعدادات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SettingsView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الترجمات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translations_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأيقونات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icons_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الدلاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buckets_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BucketsList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكائنات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objects_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObjectsList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bucket name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images</t>
+    <t xml:space="preserve">ahmed@devkit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yossuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yossuf@devkit.cmoyossuf@mln.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modirator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1118614244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karim@devkit.com</t>
   </si>
 </sst>
 </file>
@@ -760,7 +803,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +838,12 @@
       <name val="CommitMono Nerd Font"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -845,7 +894,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -871,6 +920,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,20 +980,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:D28" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="permission name"/>
-    <tableColumn id="2" name="permission function"/>
-    <tableColumn id="3" name="permission group"/>
-    <tableColumn id="4" name="permission description"/>
+    <tableColumn id="1" name="permission_name"/>
+    <tableColumn id="2" name="permission_function"/>
+    <tableColumn id="3" name="permission_group"/>
+    <tableColumn id="4" name="permission_description"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:C4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:C3" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
     <tableColumn id="1" name="role_name"/>
-    <tableColumn id="2" name="role_group#"/>
+    <tableColumn id="2" name="role_group"/>
     <tableColumn id="3" name="permission_id***accounts_schema.role_permissions***accounts_schema.permissions***permission_functions***role_name"/>
   </tableColumns>
 </table>
@@ -1129,7 +1190,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,17 +1584,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="94.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.01"/>
   </cols>
   <sheetData>
@@ -1571,29 +1632,47 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3"/>
+    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1602,7 +1681,7 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1638,288 +1717,288 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1944,85 +2023,86 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="57.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,16 +2110,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
@@ -2053,16 +2133,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2</v>
@@ -2076,16 +2156,16 @@
         <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
@@ -2096,48 +2176,48 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,16 +2225,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>7</v>
@@ -2168,16 +2248,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>7</v>
@@ -2188,48 +2268,48 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2253,22 +2333,26 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.93"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2294,4 +2378,133 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>1022052546</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>1202290100</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="ahmed@devkit.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="karim@devkit.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/exmple/accounts.xlsx
+++ b/exmple/accounts.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="roles" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="translations" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="navigation bars" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="navigation_bars" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="buckets" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="users" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'navigation bars'!$A$1:$G$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">navigation_bars!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -312,10 +312,10 @@
     <t xml:space="preserve">translation_key</t>
   </si>
   <si>
-    <t xml:space="preserve">english value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arabic value</t>
+    <t xml:space="preserve">english_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arabic_value</t>
   </si>
   <si>
     <t xml:space="preserve">roles.list</t>
@@ -1004,8 +1004,8 @@
   <autoFilter ref="A1:C33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="translation_key"/>
-    <tableColumn id="2" name="english value"/>
-    <tableColumn id="3" name="arabic value"/>
+    <tableColumn id="2" name="english_value"/>
+    <tableColumn id="3" name="arabic_value"/>
   </tableColumns>
 </table>
 </file>
@@ -2022,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2387,7 +2387,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
